--- a/Báo cáo/1_CẦN THƠ/Báo cáo cá nhân/NV-29 Lâm Hoàng Phú 7-2024.xlsx
+++ b/Báo cáo/1_CẦN THƠ/Báo cáo cá nhân/NV-29 Lâm Hoàng Phú 7-2024.xlsx
@@ -637,7 +637,7 @@
         <v>10188000</v>
       </c>
       <c r="M4" t="n">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="N4" t="n">
         <v>1018800</v>
@@ -654,7 +654,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I14"/>
+  <dimension ref="A1:I15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1228,20 +1228,63 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
+          <t>HD-LUXURY</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>590</v>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>07-25-2024</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>CẦN THƠ</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>Trần Thị Lệ</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Cá nhân</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>Nâng mũi</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>Lâm Hoàng Phú</t>
+        </is>
+      </c>
+      <c r="I14" t="n">
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
           <t>Tổng</t>
         </is>
       </c>
-      <c r="B14" t="n">
-        <v>12</v>
-      </c>
-      <c r="C14" t="inlineStr"/>
-      <c r="D14" t="inlineStr"/>
-      <c r="E14" t="inlineStr"/>
-      <c r="F14" t="inlineStr"/>
-      <c r="G14" t="inlineStr"/>
-      <c r="H14" t="inlineStr"/>
-      <c r="I14" t="n">
-        <v>950000</v>
+      <c r="B15" t="n">
+        <v>13</v>
+      </c>
+      <c r="C15" t="inlineStr"/>
+      <c r="D15" t="inlineStr"/>
+      <c r="E15" t="inlineStr"/>
+      <c r="F15" t="inlineStr"/>
+      <c r="G15" t="inlineStr"/>
+      <c r="H15" t="inlineStr"/>
+      <c r="I15" t="n">
+        <v>1050000</v>
       </c>
     </row>
   </sheetData>
@@ -1255,7 +1298,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B39"/>
+  <dimension ref="A1:B31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1280,7 +1323,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>24</v>
+        <v>24.5</v>
       </c>
     </row>
     <row r="3">
@@ -1290,33 +1333,33 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>840000</v>
+        <v>857500</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Chiết khấu sale chính tại HỆ THỐNG</t>
+          <t>Lương cơ bản tại CẦN THƠ</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>2625000</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Chiết khấu sale phụ tại HỆ THỐNG</t>
+          <t>Chiết khấu sale chính tại CẦN THƠ</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>950000</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Đơn 1 bác sĩ tại HỆ THỐNG</t>
+          <t>Chiết khấu sale phụ tại CẦN THƠ</t>
         </is>
       </c>
       <c r="B6" t="n">
@@ -1326,7 +1369,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Đơn 2 bác sĩ tại HỆ THỐNG</t>
+          <t>Đơn 1 bác sĩ tại CẦN THƠ</t>
         </is>
       </c>
       <c r="B7" t="n">
@@ -1336,7 +1379,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Công phụ phẫu 1 tại HỆ THỐNG</t>
+          <t>Đơn 2 bác sĩ tại CẦN THƠ</t>
         </is>
       </c>
       <c r="B8" t="n">
@@ -1346,47 +1389,47 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Công phụ phẫu 2 tại HỆ THỐNG</t>
+          <t>Công phụ phẫu 1 tại CẦN THƠ</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>1050000</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Ứng lương tại HỆ THỐNG</t>
+          <t>Công phụ phẫu 2 tại CẦN THƠ</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Lương cơ bản tại CẦN THƠ</t>
+          <t>Ứng lương tại CẦN THƠ</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2571428.571428571</v>
+        <v>-1900000</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Chiết khấu sale chính tại CẦN THƠ</t>
+          <t>Lương cơ bản tại LONG XUYÊN</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>950000</v>
+        <v/>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Chiết khấu sale phụ tại CẦN THƠ</t>
+          <t>Chiết khấu sale chính tại LONG XUYÊN</t>
         </is>
       </c>
       <c r="B13" t="n">
@@ -1396,7 +1439,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Đơn 1 bác sĩ tại CẦN THƠ</t>
+          <t>Chiết khấu sale phụ tại LONG XUYÊN</t>
         </is>
       </c>
       <c r="B14" t="n">
@@ -1406,7 +1449,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Đơn 2 bác sĩ tại CẦN THƠ</t>
+          <t>Đơn 1 bác sĩ tại LONG XUYÊN</t>
         </is>
       </c>
       <c r="B15" t="n">
@@ -1416,17 +1459,17 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Công phụ phẫu 1 tại CẦN THƠ</t>
+          <t>Đơn 2 bác sĩ tại LONG XUYÊN</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>950000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Công phụ phẫu 2 tại CẦN THƠ</t>
+          <t>Công phụ phẫu 1 tại LONG XUYÊN</t>
         </is>
       </c>
       <c r="B17" t="n">
@@ -1436,47 +1479,47 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Ứng lương tại CẦN THƠ</t>
+          <t>Công phụ phẫu 2 tại LONG XUYÊN</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-1900000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Lương cơ bản tại LONG XUYÊN</t>
+          <t>Ứng lương tại LONG XUYÊN</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v/>
+        <v>-0</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Chiết khấu sale chính tại LONG XUYÊN</t>
+          <t>Lương cơ bản tại SÓC TRĂNG</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v/>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Chiết khấu sale phụ tại LONG XUYÊN</t>
+          <t>Chiết khấu sale chính tại SÓC TRĂNG</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0</v>
+        <v>68800</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Đơn 1 bác sĩ tại LONG XUYÊN</t>
+          <t>Chiết khấu sale phụ tại SÓC TRĂNG</t>
         </is>
       </c>
       <c r="B22" t="n">
@@ -1486,7 +1529,7 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Đơn 2 bác sĩ tại LONG XUYÊN</t>
+          <t>Đơn 1 bác sĩ tại SÓC TRĂNG</t>
         </is>
       </c>
       <c r="B23" t="n">
@@ -1496,7 +1539,7 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Công phụ phẫu 1 tại LONG XUYÊN</t>
+          <t>Đơn 2 bác sĩ tại SÓC TRĂNG</t>
         </is>
       </c>
       <c r="B24" t="n">
@@ -1506,7 +1549,7 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Công phụ phẫu 2 tại LONG XUYÊN</t>
+          <t>Công phụ phẫu 1 tại SÓC TRĂNG</t>
         </is>
       </c>
       <c r="B25" t="n">
@@ -1516,37 +1559,37 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Ứng lương tại LONG XUYÊN</t>
+          <t>Công phụ phẫu 2 tại SÓC TRĂNG</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Lương cơ bản tại SÓC TRĂNG</t>
+          <t>Ứng lương tại SÓC TRĂNG</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v/>
+        <v>-0</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Chiết khấu sale chính tại SÓC TRĂNG</t>
+          <t>Tổng lương tại CẦN THƠ</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>68800</v>
+        <v>3582500</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Chiết khấu sale phụ tại SÓC TRĂNG</t>
+          <t>Tổng lương tại LONG XUYÊN</t>
         </is>
       </c>
       <c r="B29" t="n">
@@ -1556,101 +1599,21 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Đơn 1 bác sĩ tại SÓC TRĂNG</t>
+          <t>Tổng lương tại SÓC TRĂNG</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0</v>
+        <v>68800</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Đơn 2 bác sĩ tại SÓC TRĂNG</t>
+          <t>Tổng lương</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="inlineStr">
-        <is>
-          <t>Công phụ phẫu 1 tại SÓC TRĂNG</t>
-        </is>
-      </c>
-      <c r="B32" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" t="inlineStr">
-        <is>
-          <t>Công phụ phẫu 2 tại SÓC TRĂNG</t>
-        </is>
-      </c>
-      <c r="B33" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" t="inlineStr">
-        <is>
-          <t>Ứng lương tại SÓC TRĂNG</t>
-        </is>
-      </c>
-      <c r="B34" t="n">
-        <v>-0</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" t="inlineStr">
-        <is>
-          <t>Tổng lương tại HỆ THỐNG</t>
-        </is>
-      </c>
-      <c r="B35" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" t="inlineStr">
-        <is>
-          <t>Tổng lương tại CẦN THƠ</t>
-        </is>
-      </c>
-      <c r="B36" t="n">
-        <v>3411428.571428571</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" t="inlineStr">
-        <is>
-          <t>Tổng lương tại LONG XUYÊN</t>
-        </is>
-      </c>
-      <c r="B37" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" t="inlineStr">
-        <is>
-          <t>Tổng lương tại SÓC TRĂNG</t>
-        </is>
-      </c>
-      <c r="B38" t="n">
-        <v>68800</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" t="inlineStr">
-        <is>
-          <t>Tổng lương</t>
-        </is>
-      </c>
-      <c r="B39" t="n">
-        <v>3480228.571428571</v>
+        <v>3651300</v>
       </c>
     </row>
   </sheetData>

--- a/Báo cáo/1_CẦN THƠ/Báo cáo cá nhân/NV-29 Lâm Hoàng Phú 7-2024.xlsx
+++ b/Báo cáo/1_CẦN THƠ/Báo cáo cá nhân/NV-29 Lâm Hoàng Phú 7-2024.xlsx
@@ -415,7 +415,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N4"/>
+  <dimension ref="A1:N5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -612,34 +612,82 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
+          <t>HD-LUXURY</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>597</v>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>07-28-2024</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v/>
+      </c>
+      <c r="E4" t="n">
+        <v/>
+      </c>
+      <c r="F4" t="n">
+        <v/>
+      </c>
+      <c r="G4" t="n">
+        <v/>
+      </c>
+      <c r="H4" t="n">
+        <v/>
+      </c>
+      <c r="I4" t="n">
+        <v/>
+      </c>
+      <c r="J4" t="n">
+        <v/>
+      </c>
+      <c r="K4" t="n">
+        <v>0</v>
+      </c>
+      <c r="L4" t="n">
+        <v>0</v>
+      </c>
+      <c r="M4" t="n">
+        <v>0</v>
+      </c>
+      <c r="N4" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
           <t>Tổng</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>2</v>
-      </c>
-      <c r="C4" t="inlineStr"/>
-      <c r="D4" t="inlineStr"/>
-      <c r="E4" t="inlineStr"/>
-      <c r="F4" t="inlineStr"/>
-      <c r="G4" t="inlineStr"/>
-      <c r="H4" t="n">
+      <c r="B5" t="n">
+        <v>3</v>
+      </c>
+      <c r="C5" t="inlineStr"/>
+      <c r="D5" t="inlineStr"/>
+      <c r="E5" t="inlineStr"/>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="n">
         <v>10688000</v>
       </c>
-      <c r="I4" t="inlineStr"/>
-      <c r="J4" t="n">
+      <c r="I5" t="inlineStr"/>
+      <c r="J5" t="n">
         <v>8000000</v>
       </c>
-      <c r="K4" t="n">
+      <c r="K5" t="n">
         <v>18688000</v>
       </c>
-      <c r="L4" t="n">
+      <c r="L5" t="n">
         <v>10188000</v>
       </c>
-      <c r="M4" t="n">
-        <v>0</v>
-      </c>
-      <c r="N4" t="n">
+      <c r="M5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N5" t="n">
         <v>1018800</v>
       </c>
     </row>
@@ -654,7 +702,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I15"/>
+  <dimension ref="A1:I17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1271,20 +1319,106 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
+          <t>HD-LUXURY</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>591</v>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>07-26-2024</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>CẦN THƠ</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>Huỳnh Huyền Trân</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>Cá nhân</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>Cắt mí</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>Lâm Hoàng Phú</t>
+        </is>
+      </c>
+      <c r="I15" t="n">
+        <v>50000</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>HD-LUXURY</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>595</v>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>07-28-2024</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>SÓC TRĂNG</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t xml:space="preserve">trương thị lan </t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>Cá nhân</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>Nâng mũi</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>Lâm Hoàng Phú</t>
+        </is>
+      </c>
+      <c r="I16" t="n">
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
           <t>Tổng</t>
         </is>
       </c>
-      <c r="B15" t="n">
-        <v>13</v>
-      </c>
-      <c r="C15" t="inlineStr"/>
-      <c r="D15" t="inlineStr"/>
-      <c r="E15" t="inlineStr"/>
-      <c r="F15" t="inlineStr"/>
-      <c r="G15" t="inlineStr"/>
-      <c r="H15" t="inlineStr"/>
-      <c r="I15" t="n">
-        <v>1050000</v>
+      <c r="B17" t="n">
+        <v>15</v>
+      </c>
+      <c r="C17" t="inlineStr"/>
+      <c r="D17" t="inlineStr"/>
+      <c r="E17" t="inlineStr"/>
+      <c r="F17" t="inlineStr"/>
+      <c r="G17" t="inlineStr"/>
+      <c r="H17" t="inlineStr"/>
+      <c r="I17" t="n">
+        <v>1200000</v>
       </c>
     </row>
   </sheetData>
@@ -1298,7 +1432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B31"/>
+  <dimension ref="A1:B34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1319,47 +1453,47 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Ngày công</t>
+          <t>Tổng công tại CẦN THƠ</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>24.5</v>
+        <v>27.5</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Phụ cấp</t>
+          <t>Lương cơ bản tại CẦN THƠ</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>857500</v>
+        <v>2946428.571428571</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Lương cơ bản tại CẦN THƠ</t>
+          <t>Chiết khấu sale chính tại CẦN THƠ</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>2625000</v>
+        <v>950000</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Chiết khấu sale chính tại CẦN THƠ</t>
+          <t>Chiết khấu sale phụ tại CẦN THƠ</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>950000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Chiết khấu sale phụ tại CẦN THƠ</t>
+          <t>Đơn 1 bác sĩ tại CẦN THƠ</t>
         </is>
       </c>
       <c r="B6" t="n">
@@ -1369,7 +1503,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Đơn 1 bác sĩ tại CẦN THƠ</t>
+          <t>Đơn 2 bác sĩ tại CẦN THƠ</t>
         </is>
       </c>
       <c r="B7" t="n">
@@ -1379,67 +1513,67 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Đơn 2 bác sĩ tại CẦN THƠ</t>
+          <t>Công phụ phẫu 1 tại CẦN THƠ</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>1100000</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Công phụ phẫu 1 tại CẦN THƠ</t>
+          <t>Công phụ phẫu 2 tại CẦN THƠ</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>1050000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Công phụ phẫu 2 tại CẦN THƠ</t>
+          <t>Ứng lương tại CẦN THƠ</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>-1900000</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Ứng lương tại CẦN THƠ</t>
+          <t>Tổng công tại LONG XUYÊN</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-1900000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Lương cơ bản tại LONG XUYÊN</t>
+          <t>Lương công tác tại LONG XUYÊN</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v/>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Chiết khấu sale chính tại LONG XUYÊN</t>
+          <t>Lương cơ bản tại LONG XUYÊN</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v/>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Chiết khấu sale phụ tại LONG XUYÊN</t>
+          <t>Chiết khấu sale chính tại LONG XUYÊN</t>
         </is>
       </c>
       <c r="B14" t="n">
@@ -1449,7 +1583,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Đơn 1 bác sĩ tại LONG XUYÊN</t>
+          <t>Chiết khấu sale phụ tại LONG XUYÊN</t>
         </is>
       </c>
       <c r="B15" t="n">
@@ -1459,7 +1593,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Đơn 2 bác sĩ tại LONG XUYÊN</t>
+          <t>Đơn 1 bác sĩ tại LONG XUYÊN</t>
         </is>
       </c>
       <c r="B16" t="n">
@@ -1469,7 +1603,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Công phụ phẫu 1 tại LONG XUYÊN</t>
+          <t>Đơn 2 bác sĩ tại LONG XUYÊN</t>
         </is>
       </c>
       <c r="B17" t="n">
@@ -1479,7 +1613,7 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Công phụ phẫu 2 tại LONG XUYÊN</t>
+          <t>Công phụ phẫu 1 tại LONG XUYÊN</t>
         </is>
       </c>
       <c r="B18" t="n">
@@ -1489,37 +1623,37 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Ứng lương tại LONG XUYÊN</t>
+          <t>Công phụ phẫu 2 tại LONG XUYÊN</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Lương cơ bản tại SÓC TRĂNG</t>
+          <t>Ứng lương tại LONG XUYÊN</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v/>
+        <v>-0</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Chiết khấu sale chính tại SÓC TRĂNG</t>
+          <t>Tổng công tại SÓC TRĂNG</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>68800</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Chiết khấu sale phụ tại SÓC TRĂNG</t>
+          <t>Lương công tác tại SÓC TRĂNG</t>
         </is>
       </c>
       <c r="B22" t="n">
@@ -1529,27 +1663,27 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Đơn 1 bác sĩ tại SÓC TRĂNG</t>
+          <t>Lương cơ bản tại SÓC TRĂNG</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v/>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Đơn 2 bác sĩ tại SÓC TRĂNG</t>
+          <t>Chiết khấu sale chính tại SÓC TRĂNG</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0</v>
+        <v>68800</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Công phụ phẫu 1 tại SÓC TRĂNG</t>
+          <t>Chiết khấu sale phụ tại SÓC TRĂNG</t>
         </is>
       </c>
       <c r="B25" t="n">
@@ -1559,7 +1693,7 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Công phụ phẫu 2 tại SÓC TRĂNG</t>
+          <t>Đơn 1 bác sĩ tại SÓC TRĂNG</t>
         </is>
       </c>
       <c r="B26" t="n">
@@ -1569,27 +1703,27 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Ứng lương tại SÓC TRĂNG</t>
+          <t>Đơn 2 bác sĩ tại SÓC TRĂNG</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Tổng lương tại CẦN THƠ</t>
+          <t>Công phụ phẫu 1 tại SÓC TRĂNG</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>3582500</v>
+        <v>100000</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Tổng lương tại LONG XUYÊN</t>
+          <t>Công phụ phẫu 2 tại SÓC TRĂNG</t>
         </is>
       </c>
       <c r="B29" t="n">
@@ -1599,21 +1733,51 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Tổng lương tại SÓC TRĂNG</t>
+          <t>Ứng lương tại SÓC TRĂNG</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>68800</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
+          <t>Tổng lương tại CẦN THƠ</t>
+        </is>
+      </c>
+      <c r="B31" t="n">
+        <v>3096428.571428571</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>Tổng lương tại LONG XUYÊN</t>
+        </is>
+      </c>
+      <c r="B32" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>Tổng lương tại SÓC TRĂNG</t>
+        </is>
+      </c>
+      <c r="B33" t="n">
+        <v>168800</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
           <t>Tổng lương</t>
         </is>
       </c>
-      <c r="B31" t="n">
-        <v>3651300</v>
+      <c r="B34" t="n">
+        <v>3265228.571428571</v>
       </c>
     </row>
   </sheetData>
